--- a/data/curriculum_undergraduate.xlsx
+++ b/data/curriculum_undergraduate.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11229"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hyunjinsong/Library/CloudStorage/Dropbox/0. 학부장 업무/학부홈페이지 개편/홈페이지 개편 시안/INDEX/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/revelunt/Library/CloudStorage/Dropbox/0. 학부장 업무/학부홈페이지 개편/홈페이지 개편 시안/INDEX/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42157C0F-5412-5943-95E7-FBA1D1751A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BBEF46-2C60-8F4A-8501-35BAE9249259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="4100" windowWidth="49120" windowHeight="25780" activeTab="1" xr2:uid="{21A94480-1307-1043-865D-B691F327BBE6}"/>
+    <workbookView xWindow="-39100" yWindow="2120" windowWidth="33940" windowHeight="23600" activeTab="1" xr2:uid="{21A94480-1307-1043-865D-B691F327BBE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="시간표" sheetId="2" r:id="rId2"/>
+    <sheet name="시간표" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="234">
   <si>
     <t>종별</t>
   </si>
@@ -695,18 +695,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>연025</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>연218</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>연401</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>진D114</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -715,160 +707,103 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>10-11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11-12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>백N208</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9-10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>월</t>
+  </si>
+  <si>
+    <t>성307</t>
+  </si>
+  <si>
+    <t>수</t>
+  </si>
+  <si>
+    <t>미디어글쓰기기초</t>
+  </si>
+  <si>
+    <t>설득커뮤니케이션</t>
+  </si>
+  <si>
+    <t>빌110</t>
+  </si>
+  <si>
+    <t>목</t>
+  </si>
+  <si>
+    <t>연404</t>
+  </si>
+  <si>
     <t>연211</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>연402</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>디지털마케팅</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동아미디어그룹과함께하는저널리즘의지평</t>
   </si>
   <si>
     <t>디지털저널리즘실습</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>광고와미디어테크놀로지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고급영상제작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미디어글쓰기기초</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미디어윤리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미디어테크놀로지와사회변화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시사논술작성실습</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미디어와정치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>커뮤니케이션테크놀로지의이해</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>조직커뮤니케이션</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>저널리즘의이해</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>커뮤니케이션텍스트마이닝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>언론학연구방법론</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미디어와사회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미디어심리학</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>영상제작실습</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>탐사보도</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>언론학개론</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>언론의자유</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터언론학</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>온라인저널리즘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>소통능력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>방송의이해</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10-11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11-12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>동영상</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>백N208</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12-1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6-7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7-8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9-10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>디지털미디어와크리에이터</t>
+  </si>
+  <si>
+    <t>금</t>
+  </si>
+  <si>
+    <t>저널리즘스피치실습</t>
+  </si>
+  <si>
+    <t>2026-1</t>
+  </si>
+  <si>
+    <t>고철종</t>
+  </si>
+  <si>
+    <t>금혜성</t>
   </si>
 </sst>
 </file>
@@ -876,13 +811,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="164" formatCode="0_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -896,7 +831,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -977,47 +912,24 @@
       <charset val="129"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="한컴 말랑말랑 Regular"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <sz val="13"/>
+      <color rgb="FF555555"/>
+      <name val="Noto Sans KR Hestia Regular"/>
     </font>
     <font>
-      <sz val="20"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="한컴 말랑말랑 Regular"/>
-      <charset val="129"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color rgb="FF000000"/>
-      <name val="한컴 말랑말랑 Regular"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF555555"/>
-      <name val="Noto Sans KR Hestia Regular"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1094,7 +1006,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1146,17 +1058,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1396,17 +1297,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1423,7 +1313,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1441,61 +1331,63 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1503,15 +1395,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1519,75 +1411,82 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="9" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1595,138 +1494,159 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="12" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="12" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1" xr:uid="{967C6097-E765-AA47-AAE7-2C834FEA7F0E}"/>
     <cellStyle name="표준 2 2" xfId="2" xr:uid="{F60A35B3-DBAC-EA4E-A552-2D47C30D1C57}"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="함초롬바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2112,7 +2032,7 @@
         <charset val="129"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="176" formatCode="0_ "/>
+      <numFmt numFmtId="164" formatCode="0_ "/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -2254,30 +2174,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{47616360-7401-1247-BBB8-2A037B680ECE}" name="표1" displayName="표1" ref="A1:N57" totalsRowShown="0" dataDxfId="13" tableBorderDxfId="12">
-  <autoFilter ref="A1:N57" xr:uid="{47616360-7401-1247-BBB8-2A037B680ECE}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{418175B6-DA01-4449-A0DF-08808457DDB1}" name="종별" dataDxfId="11" dataCellStyle="표준 2 2"/>
-    <tableColumn id="2" xr3:uid="{E465CE6E-57B0-E54E-BCE9-2644B041B235}" name="학정번호" dataDxfId="10" dataCellStyle="표준 2 2"/>
-    <tableColumn id="3" xr3:uid="{5E53482A-2091-2A49-A29C-FD7DC7806112}" name="학점" dataDxfId="9" dataCellStyle="표준 2 2"/>
-    <tableColumn id="4" xr3:uid="{47787DD4-3894-EA44-AE77-7D43FFF0C152}" name="교과목명" dataDxfId="8" dataCellStyle="표준 2 2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{47616360-7401-1247-BBB8-2A037B680ECE}" name="표1" displayName="표1" ref="A1:O57" totalsRowShown="0" dataDxfId="14" tableBorderDxfId="13">
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{418175B6-DA01-4449-A0DF-08808457DDB1}" name="종별" dataDxfId="12" dataCellStyle="표준 2 2"/>
+    <tableColumn id="2" xr3:uid="{E465CE6E-57B0-E54E-BCE9-2644B041B235}" name="학정번호" dataDxfId="11" dataCellStyle="표준 2 2"/>
+    <tableColumn id="3" xr3:uid="{5E53482A-2091-2A49-A29C-FD7DC7806112}" name="학점" dataDxfId="10" dataCellStyle="표준 2 2"/>
+    <tableColumn id="4" xr3:uid="{47787DD4-3894-EA44-AE77-7D43FFF0C152}" name="교과목명" dataDxfId="9" dataCellStyle="표준 2 2"/>
     <tableColumn id="7" xr3:uid="{8E4CE6A1-4474-9640-AF3F-202F83944DA0}" name="2021-1"/>
-    <tableColumn id="8" xr3:uid="{72A31C15-CF59-3149-B8F0-59A3E2268756}" name="2021-2" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{61C40EE3-A1EE-7B49-8A7D-1ADCED5D81BA}" name="2022-1" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{C2FBE0A8-1CCD-0D4D-8BAB-9900832FF752}" name="2022-2" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{6852FBE2-C9CE-1647-A1AD-5D8DAF6BEF86}" name="2023-1" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{870528FE-26E3-B54F-98A2-A79E4B954AE0}" name="2023-2" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{72A31C15-CF59-3149-B8F0-59A3E2268756}" name="2021-2" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{61C40EE3-A1EE-7B49-8A7D-1ADCED5D81BA}" name="2022-1" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{C2FBE0A8-1CCD-0D4D-8BAB-9900832FF752}" name="2022-2" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{6852FBE2-C9CE-1647-A1AD-5D8DAF6BEF86}" name="2023-1" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{870528FE-26E3-B54F-98A2-A79E4B954AE0}" name="2023-2" dataDxfId="4"/>
     <tableColumn id="13" xr3:uid="{BB74E611-12C2-4743-82A7-37640962B3E6}" name="2024-1"/>
-    <tableColumn id="14" xr3:uid="{9599F12D-37B1-D34F-8A0B-0F0D0C72BC5F}" name="2024-2" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{A11BDAD2-CB93-7344-8E43-1C70BD4E4DA4}" name="2025-1" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{D7D73BD8-B013-0443-94CA-ED095DBE217B}" name="2025-2" dataDxfId="0"/>
+    <tableColumn id="14" xr3:uid="{9599F12D-37B1-D34F-8A0B-0F0D0C72BC5F}" name="2024-2" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{A11BDAD2-CB93-7344-8E43-1C70BD4E4DA4}" name="2025-1" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{D7D73BD8-B013-0443-94CA-ED095DBE217B}" name="2025-2" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{03F6C343-E38A-5F47-9B73-1F3015334B62}" name="2026-1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2593,19 +2513,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91807FF8-03B3-1844-BD16-33C96DBD8A94}">
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O57" sqref="O57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="4" max="4" width="35.85546875" customWidth="1"/>
+    <col min="4" max="4" width="35.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:15" ht="18">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -2641,1824 +2561,1927 @@
       <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="43" t="s">
+      <c r="O1" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="8">
-        <v>3</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="6">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="43" t="s">
+      <c r="O2" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="8">
-        <v>3</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="6">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="13" t="s">
+      <c r="G3" s="16"/>
+      <c r="H3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="44" t="s">
+      <c r="O3" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="26">
-        <v>3</v>
-      </c>
-      <c r="D4" s="27" t="s">
+      <c r="C4" s="24">
+        <v>3</v>
+      </c>
+      <c r="D4" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="10" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="13" t="s">
+      <c r="G4" s="16"/>
+      <c r="H4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="13" t="s">
+      <c r="J4" s="16"/>
+      <c r="K4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="13" t="s">
+      <c r="L4" s="16"/>
+      <c r="M4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="18"/>
-    </row>
-    <row r="5" spans="1:14" ht="30">
-      <c r="A5" s="45" t="s">
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+    </row>
+    <row r="5" spans="1:15" ht="30">
+      <c r="A5" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="22">
-        <v>3</v>
-      </c>
-      <c r="D5" s="23" t="s">
+      <c r="C5" s="20">
+        <v>3</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="13" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="18"/>
-      <c r="N5" s="20" t="s">
+      <c r="M5" s="16"/>
+      <c r="N5" s="18" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="44" t="s">
+      <c r="O5" s="16"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="29">
-        <v>3</v>
-      </c>
-      <c r="D6" s="30" t="s">
+      <c r="C6" s="27">
+        <v>3</v>
+      </c>
+      <c r="D6" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="13" t="s">
+      <c r="I6" s="16"/>
+      <c r="J6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="13" t="s">
+      <c r="K6" s="16"/>
+      <c r="L6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="M6" s="18"/>
-      <c r="N6" s="12" t="s">
+      <c r="M6" s="16"/>
+      <c r="N6" s="10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="45" t="s">
+      <c r="O6" s="16"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="16">
-        <v>3</v>
-      </c>
-      <c r="D7" s="17" t="s">
+      <c r="C7" s="14">
+        <v>3</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="M7" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="N7" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="46" t="s">
+      <c r="O7" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="22">
-        <v>3</v>
-      </c>
-      <c r="D8" s="23" t="s">
+      <c r="C8" s="20">
+        <v>3</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="13" t="s">
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="13" t="s">
+      <c r="H8" s="16"/>
+      <c r="I8" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="18"/>
-      <c r="K8" s="13" t="s">
+      <c r="J8" s="16"/>
+      <c r="K8" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="L8" s="18"/>
-      <c r="M8" s="13" t="s">
+      <c r="L8" s="16"/>
+      <c r="M8" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="N8" s="18"/>
-    </row>
-    <row r="9" spans="1:14" ht="29" customHeight="1">
-      <c r="A9" s="45" t="s">
+      <c r="N8" s="16"/>
+      <c r="O8" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="29" customHeight="1">
+      <c r="A9" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="16">
-        <v>3</v>
-      </c>
-      <c r="D9" s="17" t="s">
+      <c r="C9" s="14">
+        <v>3</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="13" t="s">
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="18"/>
-      <c r="N9" s="13" t="s">
+      <c r="M9" s="16"/>
+      <c r="N9" s="11" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="44" t="s">
+      <c r="O9" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="29">
-        <v>3</v>
-      </c>
-      <c r="D10" s="30" t="s">
+      <c r="C10" s="27">
+        <v>3</v>
+      </c>
+      <c r="D10" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="13" t="s">
+      <c r="F10" s="22"/>
+      <c r="G10" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="13" t="s">
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="M10" s="13" t="s">
+      <c r="M10" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="N10" s="12" t="s">
+      <c r="N10" s="10" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="45" t="s">
+      <c r="O10" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="16">
-        <v>3</v>
-      </c>
-      <c r="D11" s="17" t="s">
+      <c r="C11" s="14">
+        <v>3</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="13" t="s">
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="K11" s="13" t="s">
+      <c r="K11" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="L11" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="M11" s="13" t="s">
+      <c r="M11" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="N11" s="13" t="s">
+      <c r="N11" s="11" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="45" t="s">
+      <c r="O11" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="16">
-        <v>3</v>
-      </c>
-      <c r="D12" s="17" t="s">
+      <c r="C12" s="14">
+        <v>3</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L12" s="13" t="s">
+      <c r="L12" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="M12" s="13" t="s">
+      <c r="M12" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="N12" s="13" t="s">
+      <c r="N12" s="11" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="47" t="s">
+      <c r="O12" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="29">
-        <v>3</v>
-      </c>
-      <c r="D13" s="30" t="s">
+      <c r="C13" s="27">
+        <v>3</v>
+      </c>
+      <c r="D13" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="I13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="L13" s="13" t="s">
+      <c r="L13" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="M13" s="14" t="s">
+      <c r="M13" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="N13" s="18"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="46" t="s">
+      <c r="N13" s="16"/>
+      <c r="O13" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="22">
-        <v>3</v>
-      </c>
-      <c r="D14" s="23" t="s">
+      <c r="C14" s="20">
+        <v>3</v>
+      </c>
+      <c r="D14" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="10" t="s">
+      <c r="E14" s="22"/>
+      <c r="F14" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="13" t="s">
+      <c r="G14" s="16"/>
+      <c r="H14" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="13" t="s">
+      <c r="I14" s="16"/>
+      <c r="J14" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="K14" s="18"/>
-      <c r="L14" s="13" t="s">
+      <c r="K14" s="16"/>
+      <c r="L14" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="M14" s="13" t="s">
+      <c r="M14" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="N14" s="18"/>
-    </row>
-    <row r="15" spans="1:14" ht="34" customHeight="1">
-      <c r="A15" s="47" t="s">
+      <c r="N14" s="16"/>
+      <c r="O14" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="34" customHeight="1">
+      <c r="A15" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="26">
-        <v>3</v>
-      </c>
-      <c r="D15" s="27" t="s">
+      <c r="C15" s="24">
+        <v>3</v>
+      </c>
+      <c r="D15" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="20" t="s">
+      <c r="E15" s="22"/>
+      <c r="F15" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="13" t="s">
+      <c r="G15" s="16"/>
+      <c r="H15" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="34" t="s">
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="32" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="45" t="s">
+      <c r="O15" s="16"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="16">
-        <v>3</v>
-      </c>
-      <c r="D16" s="17" t="s">
+      <c r="C16" s="14">
+        <v>3</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="13" t="s">
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="45" t="s">
+      <c r="O16" s="16"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="16">
-        <v>3</v>
-      </c>
-      <c r="D17" s="17" t="s">
+      <c r="C17" s="14">
+        <v>3</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="13" t="s">
+      <c r="E17" s="16"/>
+      <c r="F17" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="18"/>
-      <c r="H17" s="13" t="s">
+      <c r="G17" s="16"/>
+      <c r="H17" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="13" t="s">
+      <c r="I17" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J17" s="13" t="s">
+      <c r="J17" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="K17" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="L17" s="18"/>
-      <c r="M17" s="13" t="s">
+      <c r="L17" s="16"/>
+      <c r="M17" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="N17" s="18"/>
-    </row>
-    <row r="18" spans="1:14" ht="30">
-      <c r="A18" s="47" t="s">
+      <c r="N17" s="16"/>
+      <c r="O17" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="30">
+      <c r="A18" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="26">
-        <v>3</v>
-      </c>
-      <c r="D18" s="27" t="s">
+      <c r="C18" s="24">
+        <v>3</v>
+      </c>
+      <c r="D18" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="13" t="s">
+      <c r="E18" s="16"/>
+      <c r="F18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="13" t="s">
+      <c r="G18" s="16"/>
+      <c r="H18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I18" s="24"/>
-      <c r="J18" s="13" t="s">
+      <c r="I18" s="22"/>
+      <c r="J18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="24"/>
-      <c r="L18" s="13" t="s">
+      <c r="K18" s="22"/>
+      <c r="L18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M18" s="18"/>
-      <c r="N18" s="12" t="s">
+      <c r="M18" s="16"/>
+      <c r="N18" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="45" t="s">
+      <c r="O18" s="16"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="16">
-        <v>3</v>
-      </c>
-      <c r="D19" s="17" t="s">
+      <c r="C19" s="14">
+        <v>3</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="13" t="s">
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="13" t="s">
+      <c r="H19" s="16"/>
+      <c r="I19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="13" t="s">
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="N19" s="18"/>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="46" t="s">
+      <c r="N19" s="16"/>
+      <c r="O19" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="22">
-        <v>3</v>
-      </c>
-      <c r="D20" s="23" t="s">
+      <c r="C20" s="20">
+        <v>3</v>
+      </c>
+      <c r="D20" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="13" t="s">
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="18"/>
-      <c r="I20" s="13" t="s">
+      <c r="H20" s="16"/>
+      <c r="I20" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="13" t="s">
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="N20" s="18"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="46" t="s">
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="C21" s="22">
-        <v>3</v>
-      </c>
-      <c r="D21" s="23" t="s">
+      <c r="C21" s="20">
+        <v>3</v>
+      </c>
+      <c r="D21" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="13" t="s">
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J21" s="18"/>
-      <c r="K21" s="13" t="s">
+      <c r="J21" s="16"/>
+      <c r="K21" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="L21" s="13" t="s">
+      <c r="L21" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="M21" s="35"/>
-      <c r="N21" s="13" t="s">
+      <c r="M21" s="33"/>
+      <c r="N21" s="11" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="44" t="s">
+      <c r="O21" s="16"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="29">
-        <v>3</v>
-      </c>
-      <c r="D22" s="30" t="s">
+      <c r="C22" s="27">
+        <v>3</v>
+      </c>
+      <c r="D22" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="13" t="s">
+      <c r="F22" s="16"/>
+      <c r="G22" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="H22" s="18"/>
-      <c r="I22" s="13" t="s">
+      <c r="H22" s="16"/>
+      <c r="I22" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="J22" s="18"/>
-      <c r="K22" s="13" t="s">
+      <c r="J22" s="16"/>
+      <c r="K22" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="L22" s="18"/>
-      <c r="M22" s="13" t="s">
+      <c r="L22" s="16"/>
+      <c r="M22" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="N22" s="36"/>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="46" t="s">
+      <c r="N22" s="34"/>
+      <c r="O22" s="16"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="16">
-        <v>3</v>
-      </c>
-      <c r="D23" s="17" t="s">
+      <c r="C23" s="14">
+        <v>3</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="13" t="s">
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="K23" s="24"/>
-      <c r="L23" s="13" t="s">
+      <c r="K23" s="22"/>
+      <c r="L23" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="M23" s="18"/>
-      <c r="N23" s="13" t="s">
+      <c r="M23" s="16"/>
+      <c r="N23" s="11" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="46" t="s">
+      <c r="O23" s="16"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="22">
-        <v>3</v>
-      </c>
-      <c r="D24" s="23" t="s">
+      <c r="C24" s="20">
+        <v>3</v>
+      </c>
+      <c r="D24" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="13" t="s">
+      <c r="E24" s="22"/>
+      <c r="F24" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="G24" s="18"/>
-      <c r="H24" s="13" t="s">
+      <c r="G24" s="16"/>
+      <c r="H24" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="45" t="s">
+      <c r="I24" s="22"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C25" s="16">
-        <v>3</v>
-      </c>
-      <c r="D25" s="17" t="s">
+      <c r="C25" s="14">
+        <v>3</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="13" t="s">
+      <c r="F25" s="16"/>
+      <c r="G25" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="H25" s="18"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="13" t="s">
+      <c r="H25" s="16"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="K25" s="24"/>
-      <c r="L25" s="13" t="s">
+      <c r="K25" s="22"/>
+      <c r="L25" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="M25" s="18"/>
-      <c r="N25" s="13" t="s">
+      <c r="M25" s="16"/>
+      <c r="N25" s="11" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="46" t="s">
+      <c r="O25" s="16"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="22">
-        <v>3</v>
-      </c>
-      <c r="D26" s="23" t="s">
+      <c r="C26" s="20">
+        <v>3</v>
+      </c>
+      <c r="D26" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="13" t="s">
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J26" s="18"/>
-      <c r="K26" s="13" t="s">
+      <c r="J26" s="16"/>
+      <c r="K26" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="L26" s="18"/>
-      <c r="M26" s="13" t="s">
+      <c r="L26" s="16"/>
+      <c r="M26" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="N26" s="18"/>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="47" t="s">
+      <c r="N26" s="16"/>
+      <c r="O26" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="26">
-        <v>3</v>
-      </c>
-      <c r="D27" s="27" t="s">
+      <c r="C27" s="24">
+        <v>3</v>
+      </c>
+      <c r="D27" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="13" t="s">
+      <c r="E27" s="22"/>
+      <c r="F27" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="13" t="s">
+      <c r="G27" s="16"/>
+      <c r="H27" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="24"/>
-      <c r="J27" s="13" t="s">
+      <c r="I27" s="22"/>
+      <c r="J27" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K27" s="24"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="45" t="s">
+      <c r="K27" s="22"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="16">
-        <v>3</v>
-      </c>
-      <c r="D28" s="17" t="s">
+      <c r="C28" s="14">
+        <v>3</v>
+      </c>
+      <c r="D28" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="13" t="s">
+      <c r="E28" s="16"/>
+      <c r="F28" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="18"/>
-      <c r="H28" s="13" t="s">
+      <c r="G28" s="16"/>
+      <c r="H28" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I28" s="24"/>
-      <c r="J28" s="13" t="s">
+      <c r="I28" s="22"/>
+      <c r="J28" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="K28" s="24"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="13" t="s">
+      <c r="K28" s="22"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="46" t="s">
+      <c r="O28" s="16"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C29" s="22">
-        <v>3</v>
-      </c>
-      <c r="D29" s="23" t="s">
+      <c r="C29" s="20">
+        <v>3</v>
+      </c>
+      <c r="D29" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="20" t="s">
+      <c r="E29" s="22"/>
+      <c r="F29" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="G29" s="18"/>
-      <c r="H29" s="13" t="s">
+      <c r="G29" s="16"/>
+      <c r="H29" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="I29" s="24"/>
-      <c r="J29" s="13" t="s">
+      <c r="I29" s="22"/>
+      <c r="J29" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="K29" s="24"/>
-      <c r="L29" s="13" t="s">
+      <c r="K29" s="22"/>
+      <c r="L29" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="46" t="s">
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="22">
-        <v>3</v>
-      </c>
-      <c r="D30" s="23" t="s">
+      <c r="C30" s="20">
+        <v>3</v>
+      </c>
+      <c r="D30" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="13" t="s">
+      <c r="E30" s="16"/>
+      <c r="F30" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="G30" s="18"/>
-      <c r="H30" s="13" t="s">
+      <c r="G30" s="16"/>
+      <c r="H30" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="I30" s="24"/>
-      <c r="J30" s="13" t="s">
+      <c r="I30" s="22"/>
+      <c r="J30" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="K30" s="24"/>
-      <c r="L30" s="13" t="s">
+      <c r="K30" s="22"/>
+      <c r="L30" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="45" t="s">
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C31" s="16">
-        <v>3</v>
-      </c>
-      <c r="D31" s="17" t="s">
+      <c r="C31" s="14">
+        <v>3</v>
+      </c>
+      <c r="D31" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F31" s="24"/>
-      <c r="G31" s="13" t="s">
+      <c r="F31" s="22"/>
+      <c r="G31" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="H31" s="18"/>
-      <c r="I31" s="13" t="s">
+      <c r="H31" s="16"/>
+      <c r="I31" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="J31" s="18"/>
-      <c r="K31" s="13" t="s">
+      <c r="J31" s="16"/>
+      <c r="K31" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="L31" s="18"/>
-      <c r="M31" s="13" t="s">
+      <c r="L31" s="16"/>
+      <c r="M31" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="N31" s="18"/>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="46" t="s">
+      <c r="N31" s="16"/>
+      <c r="O31" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="C32" s="22">
-        <v>3</v>
-      </c>
-      <c r="D32" s="23" t="s">
+      <c r="C32" s="20">
+        <v>3</v>
+      </c>
+      <c r="D32" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="E32" s="24"/>
-      <c r="F32" s="20" t="s">
+      <c r="E32" s="22"/>
+      <c r="F32" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="G32" s="18"/>
-      <c r="H32" s="13" t="s">
+      <c r="G32" s="16"/>
+      <c r="H32" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="I32" s="24"/>
-      <c r="J32" s="13" t="s">
+      <c r="I32" s="22"/>
+      <c r="J32" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="K32" s="24"/>
-      <c r="L32" s="13" t="s">
+      <c r="K32" s="22"/>
+      <c r="L32" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="M32" s="18"/>
-      <c r="N32" s="13" t="s">
+      <c r="M32" s="16"/>
+      <c r="N32" s="11" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="46" t="s">
+      <c r="O32" s="16"/>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="C33" s="22">
-        <v>3</v>
-      </c>
-      <c r="D33" s="23" t="s">
+      <c r="C33" s="20">
+        <v>3</v>
+      </c>
+      <c r="D33" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="E33" s="18"/>
-      <c r="F33" s="13" t="s">
+      <c r="E33" s="16"/>
+      <c r="F33" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="G33" s="18"/>
-      <c r="H33" s="13" t="s">
+      <c r="G33" s="16"/>
+      <c r="H33" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="I33" s="24"/>
-      <c r="J33" s="13" t="s">
+      <c r="I33" s="22"/>
+      <c r="J33" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="K33" s="24"/>
-      <c r="L33" s="13" t="s">
+      <c r="K33" s="22"/>
+      <c r="L33" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="M33" s="18"/>
-      <c r="N33" s="13" t="s">
+      <c r="M33" s="16"/>
+      <c r="N33" s="11" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="46" t="s">
+      <c r="O33" s="16"/>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C34" s="22">
-        <v>3</v>
-      </c>
-      <c r="D34" s="23" t="s">
+      <c r="C34" s="20">
+        <v>3</v>
+      </c>
+      <c r="D34" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="13" t="s">
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="H34" s="18"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="20" t="s">
+      <c r="H34" s="16"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="46" t="s">
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="C35" s="22">
-        <v>3</v>
-      </c>
-      <c r="D35" s="23" t="s">
+      <c r="C35" s="20">
+        <v>3</v>
+      </c>
+      <c r="D35" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="F35" s="24"/>
-      <c r="G35" s="13" t="s">
+      <c r="F35" s="22"/>
+      <c r="G35" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="H35" s="18"/>
-      <c r="I35" s="13" t="s">
+      <c r="H35" s="16"/>
+      <c r="I35" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="20" t="s">
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="N35" s="18"/>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="45" t="s">
+      <c r="N35" s="16"/>
+      <c r="O35" s="18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="C36" s="16">
-        <v>3</v>
-      </c>
-      <c r="D36" s="19" t="s">
+      <c r="C36" s="14">
+        <v>3</v>
+      </c>
+      <c r="D36" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="E36" s="24"/>
-      <c r="F36" s="20" t="s">
+      <c r="E36" s="22"/>
+      <c r="F36" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="13" t="s">
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="K36" s="24"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="48" t="s">
+      <c r="K36" s="22"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="C37" s="29">
-        <v>3</v>
-      </c>
-      <c r="D37" s="38" t="s">
+      <c r="C37" s="27">
+        <v>3</v>
+      </c>
+      <c r="D37" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="13" t="s">
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H37" s="18"/>
-      <c r="I37" s="13" t="s">
+      <c r="H37" s="16"/>
+      <c r="I37" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J37" s="18"/>
-      <c r="K37" s="13" t="s">
+      <c r="J37" s="16"/>
+      <c r="K37" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="L37" s="18"/>
-      <c r="M37" s="13" t="s">
+      <c r="L37" s="16"/>
+      <c r="M37" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="N37" s="18"/>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="46" t="s">
+      <c r="N37" s="16"/>
+      <c r="O37" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="C38" s="16">
-        <v>3</v>
-      </c>
-      <c r="D38" s="32" t="s">
+      <c r="C38" s="14">
+        <v>3</v>
+      </c>
+      <c r="D38" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="13" t="s">
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="H38" s="13" t="s">
+      <c r="H38" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="I38" s="13" t="s">
+      <c r="I38" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J38" s="13" t="s">
+      <c r="J38" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K38" s="13" t="s">
+      <c r="K38" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="L38" s="13" t="s">
+      <c r="L38" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="M38" s="14" t="s">
+      <c r="M38" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="N38" s="14" t="s">
+      <c r="N38" s="12" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="46" t="s">
+      <c r="O38" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="C39" s="26">
-        <v>3</v>
-      </c>
-      <c r="D39" s="27" t="s">
+      <c r="C39" s="24">
+        <v>3</v>
+      </c>
+      <c r="D39" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="13" t="s">
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="I39" s="24"/>
-      <c r="J39" s="13" t="s">
+      <c r="I39" s="22"/>
+      <c r="J39" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="K39" s="24"/>
-      <c r="L39" s="13" t="s">
+      <c r="K39" s="22"/>
+      <c r="L39" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="M39" s="18"/>
-      <c r="N39" s="12" t="s">
+      <c r="M39" s="16"/>
+      <c r="N39" s="10" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" ht="30">
-      <c r="A40" s="46" t="s">
+      <c r="O39" s="16"/>
+    </row>
+    <row r="40" spans="1:15" ht="30">
+      <c r="A40" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="C40" s="22">
-        <v>3</v>
-      </c>
-      <c r="D40" s="23" t="s">
+      <c r="C40" s="20">
+        <v>3</v>
+      </c>
+      <c r="D40" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="13" t="s">
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="I40" s="24"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="13" t="s">
+      <c r="I40" s="22"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="M40" s="18"/>
-      <c r="N40" s="13" t="s">
+      <c r="M40" s="16"/>
+      <c r="N40" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="A41" s="46" t="s">
+      <c r="O40" s="16"/>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="C41" s="22">
-        <v>3</v>
-      </c>
-      <c r="D41" s="23" t="s">
+      <c r="C41" s="20">
+        <v>3</v>
+      </c>
+      <c r="D41" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="13" t="s">
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="I41" s="24"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="13" t="s">
+      <c r="I41" s="22"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="M41" s="18"/>
-      <c r="N41" s="13" t="s">
+      <c r="M41" s="16"/>
+      <c r="N41" s="11" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="46" t="s">
+      <c r="O41" s="16"/>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="C42" s="22">
-        <v>3</v>
-      </c>
-      <c r="D42" s="23" t="s">
+      <c r="C42" s="20">
+        <v>3</v>
+      </c>
+      <c r="D42" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="13" t="s">
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="I42" s="24"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="20" t="s">
+      <c r="I42" s="22"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="18"/>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="46" t="s">
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="C43" s="22">
-        <v>3</v>
-      </c>
-      <c r="D43" s="23" t="s">
+      <c r="C43" s="20">
+        <v>3</v>
+      </c>
+      <c r="D43" s="21" t="s">
         <v>159</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="13" t="s">
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="I43" s="13" t="s">
+      <c r="I43" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="J43" s="13" t="s">
+      <c r="J43" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="18"/>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="A44" s="46" t="s">
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="C44" s="22">
-        <v>3</v>
-      </c>
-      <c r="D44" s="23" t="s">
+      <c r="C44" s="20">
+        <v>3</v>
+      </c>
+      <c r="D44" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="13" t="s">
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="J44" s="18"/>
-      <c r="K44" s="13" t="s">
+      <c r="J44" s="16"/>
+      <c r="K44" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="L44" s="18"/>
-      <c r="M44" s="13" t="s">
+      <c r="L44" s="16"/>
+      <c r="M44" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="N44" s="18"/>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="A45" s="46" t="s">
+      <c r="N44" s="16"/>
+      <c r="O44" s="11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="C45" s="22">
-        <v>3</v>
-      </c>
-      <c r="D45" s="23" t="s">
+      <c r="C45" s="20">
+        <v>3</v>
+      </c>
+      <c r="D45" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="13" t="s">
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L45" s="18"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="13" t="s">
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="A46" s="46" t="s">
+      <c r="O45" s="16"/>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="C46" s="22">
-        <v>3</v>
-      </c>
-      <c r="D46" s="23" t="s">
+      <c r="C46" s="20">
+        <v>3</v>
+      </c>
+      <c r="D46" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="20" t="s">
+      <c r="E46" s="22"/>
+      <c r="F46" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G46" s="18"/>
-      <c r="H46" s="13" t="s">
+      <c r="G46" s="16"/>
+      <c r="H46" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I46" s="24"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="18"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="18"/>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="A47" s="45" t="s">
+      <c r="I46" s="22"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="C47" s="16">
-        <v>3</v>
-      </c>
-      <c r="D47" s="17" t="s">
+      <c r="C47" s="14">
+        <v>3</v>
+      </c>
+      <c r="D47" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="E47" s="20" t="s">
+      <c r="E47" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F47" s="24"/>
-      <c r="G47" s="13" t="s">
+      <c r="F47" s="22"/>
+      <c r="G47" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H47" s="18"/>
-      <c r="I47" s="13" t="s">
+      <c r="H47" s="16"/>
+      <c r="I47" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="18"/>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="A48" s="45" t="s">
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="C48" s="16">
-        <v>3</v>
-      </c>
-      <c r="D48" s="17" t="s">
+      <c r="C48" s="14">
+        <v>3</v>
+      </c>
+      <c r="D48" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="18"/>
-      <c r="M48" s="13" t="s">
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N48" s="18"/>
-    </row>
-    <row r="49" spans="1:14">
-      <c r="A49" s="46" t="s">
+      <c r="N48" s="16"/>
+      <c r="O48" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="C49" s="22">
-        <v>3</v>
-      </c>
-      <c r="D49" s="23" t="s">
+      <c r="C49" s="20">
+        <v>3</v>
+      </c>
+      <c r="D49" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="E49" s="18"/>
-      <c r="F49" s="13" t="s">
+      <c r="E49" s="16"/>
+      <c r="F49" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="G49" s="18"/>
-      <c r="H49" s="13" t="s">
+      <c r="G49" s="16"/>
+      <c r="H49" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="I49" s="24"/>
-      <c r="J49" s="13" t="s">
+      <c r="I49" s="22"/>
+      <c r="J49" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="K49" s="24"/>
-      <c r="L49" s="13" t="s">
+      <c r="K49" s="22"/>
+      <c r="L49" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="M49" s="18"/>
-      <c r="N49" s="13" t="s">
+      <c r="M49" s="16"/>
+      <c r="N49" s="11" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="50" spans="1:14">
-      <c r="A50" s="48" t="s">
+      <c r="O49" s="16"/>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="C50" s="26">
-        <v>3</v>
-      </c>
-      <c r="D50" s="27" t="s">
+      <c r="C50" s="24">
+        <v>3</v>
+      </c>
+      <c r="D50" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="E50" s="20" t="s">
+      <c r="E50" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="F50" s="24"/>
-      <c r="G50" s="13" t="s">
+      <c r="F50" s="22"/>
+      <c r="G50" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="H50" s="18"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="13" t="s">
+      <c r="H50" s="16"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="K50" s="24"/>
-      <c r="L50" s="18"/>
-      <c r="M50" s="13" t="s">
+      <c r="K50" s="22"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="N50" s="18"/>
-    </row>
-    <row r="51" spans="1:14">
-      <c r="A51" s="45" t="s">
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="C51" s="16">
-        <v>3</v>
-      </c>
-      <c r="D51" s="19" t="s">
+      <c r="C51" s="14">
+        <v>3</v>
+      </c>
+      <c r="D51" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="20" t="s">
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="L51" s="18"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="18"/>
-    </row>
-    <row r="52" spans="1:14">
-      <c r="A52" s="45" t="s">
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="C52" s="16">
-        <v>3</v>
-      </c>
-      <c r="D52" s="19" t="s">
+      <c r="C52" s="14">
+        <v>3</v>
+      </c>
+      <c r="D52" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="E52" s="24"/>
-      <c r="F52" s="20" t="s">
+      <c r="E52" s="22"/>
+      <c r="F52" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="13" t="s">
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="M52" s="18"/>
-      <c r="N52" s="13" t="s">
+      <c r="M52" s="16"/>
+      <c r="N52" s="11" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="53" spans="1:14">
-      <c r="A53" s="46" t="s">
+      <c r="O52" s="16"/>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="C53" s="22">
-        <v>3</v>
-      </c>
-      <c r="D53" s="23" t="s">
+      <c r="C53" s="20">
+        <v>3</v>
+      </c>
+      <c r="D53" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="E53" s="24"/>
-      <c r="F53" s="20" t="s">
+      <c r="E53" s="22"/>
+      <c r="F53" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="13" t="s">
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="K53" s="24"/>
-      <c r="L53" s="13" t="s">
+      <c r="K53" s="22"/>
+      <c r="L53" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="M53" s="18"/>
-      <c r="N53" s="18"/>
-    </row>
-    <row r="54" spans="1:14">
-      <c r="A54" s="46" t="s">
+      <c r="M53" s="16"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B54" s="21" t="s">
+      <c r="B54" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="C54" s="22">
-        <v>3</v>
-      </c>
-      <c r="D54" s="23" t="s">
+      <c r="C54" s="20">
+        <v>3</v>
+      </c>
+      <c r="D54" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="E54" s="20" t="s">
+      <c r="E54" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="F54" s="24"/>
-      <c r="G54" s="13" t="s">
+      <c r="F54" s="22"/>
+      <c r="G54" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="H54" s="18"/>
-      <c r="I54" s="13" t="s">
+      <c r="H54" s="16"/>
+      <c r="I54" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="J54" s="18"/>
-      <c r="K54" s="13" t="s">
+      <c r="J54" s="16"/>
+      <c r="K54" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="L54" s="18"/>
-      <c r="M54" s="13" t="s">
+      <c r="L54" s="16"/>
+      <c r="M54" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="N54" s="18"/>
-    </row>
-    <row r="55" spans="1:14">
-      <c r="A55" s="46" t="s">
+      <c r="N54" s="16"/>
+      <c r="O54" s="16"/>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="C55" s="22">
-        <v>3</v>
-      </c>
-      <c r="D55" s="23" t="s">
+      <c r="C55" s="20">
+        <v>3</v>
+      </c>
+      <c r="D55" s="21" t="s">
         <v>188</v>
       </c>
-      <c r="E55" s="20" t="s">
+      <c r="E55" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="F55" s="24"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="13" t="s">
+      <c r="F55" s="22"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="J55" s="18"/>
-      <c r="K55" s="13" t="s">
+      <c r="J55" s="16"/>
+      <c r="K55" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="L55" s="18"/>
-      <c r="M55" s="13" t="s">
+      <c r="L55" s="16"/>
+      <c r="M55" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="N55" s="18"/>
-    </row>
-    <row r="56" spans="1:14">
-      <c r="A56" s="49" t="s">
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="B56" s="39" t="s">
+      <c r="B56" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="C56" s="40">
-        <v>3</v>
-      </c>
-      <c r="D56" s="41" t="s">
+      <c r="C56" s="38">
+        <v>3</v>
+      </c>
+      <c r="D56" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="20" t="s">
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="L56" s="18"/>
-      <c r="M56" s="20" t="s">
+      <c r="L56" s="16"/>
+      <c r="M56" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="N56" s="18"/>
-    </row>
-    <row r="57" spans="1:14">
-      <c r="A57" s="50" t="s">
+      <c r="N56" s="16"/>
+      <c r="O56" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B57" s="51" t="s">
+      <c r="B57" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="C57" s="52">
-        <v>3</v>
-      </c>
-      <c r="D57" s="53" t="s">
+      <c r="C57" s="50">
+        <v>3</v>
+      </c>
+      <c r="D57" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="E57" s="54"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="55"/>
-      <c r="I57" s="54"/>
-      <c r="J57" s="55"/>
-      <c r="K57" s="56" t="s">
+      <c r="E57" s="52"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="53"/>
+      <c r="H57" s="53"/>
+      <c r="I57" s="52"/>
+      <c r="J57" s="53"/>
+      <c r="K57" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="L57" s="55"/>
-      <c r="M57" s="57" t="s">
+      <c r="L57" s="53"/>
+      <c r="M57" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="N57" s="55"/>
+      <c r="N57" s="53"/>
+      <c r="O57" s="55" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4470,648 +4493,573 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A83E83-FE9A-8D42-8EF4-90FA7F79D646}">
-  <dimension ref="A1:X13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE2FC47-AFC2-5C4D-96AB-ACC05297AD6A}">
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" style="85"/>
+    <col min="1" max="1" width="10.83203125" style="56"/>
+    <col min="2" max="2" width="10.83203125" style="58"/>
+    <col min="3" max="16384" width="10.83203125" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="32" thickBot="1">
-      <c r="A1" s="58"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="59" t="s">
+    <row r="1" spans="1:20" ht="17" thickBot="1">
+      <c r="A1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="D1" s="59" t="s">
-        <v>196</v>
-      </c>
-      <c r="E1" s="59" t="s">
-        <v>196</v>
-      </c>
-      <c r="F1" s="59" t="s">
-        <v>196</v>
-      </c>
-      <c r="G1" s="59" t="s">
+      <c r="E1" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1" s="61" t="s">
+        <v>217</v>
+      </c>
+      <c r="G1" s="61" t="s">
         <v>197</v>
       </c>
-      <c r="H1" s="59" t="s">
+      <c r="H1" s="61" t="s">
         <v>197</v>
       </c>
-      <c r="I1" s="59" t="s">
-        <v>197</v>
-      </c>
-      <c r="J1" s="59" t="s">
-        <v>197</v>
-      </c>
-      <c r="K1" s="59" t="s">
-        <v>197</v>
-      </c>
-      <c r="L1" s="59" t="s">
+      <c r="I1" s="61" t="s">
         <v>198</v>
       </c>
-      <c r="M1" s="59" t="s">
+      <c r="J1" s="61" t="s">
         <v>198</v>
       </c>
-      <c r="N1" s="59" t="s">
+      <c r="K1" s="61" t="s">
         <v>198</v>
       </c>
-      <c r="O1" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="P1" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q1" s="59" t="s">
-        <v>198</v>
-      </c>
-      <c r="R1" s="59" t="s">
+      <c r="L1" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="M1" s="61" t="s">
+        <v>223</v>
+      </c>
+      <c r="N1" s="61" t="s">
+        <v>223</v>
+      </c>
+      <c r="O1" s="61" t="s">
         <v>199</v>
       </c>
-      <c r="S1" s="59" t="s">
+      <c r="P1" s="61" t="s">
         <v>199</v>
       </c>
-      <c r="T1" s="59" t="s">
-        <v>199</v>
-      </c>
-      <c r="U1" s="59" t="s">
-        <v>199</v>
-      </c>
-      <c r="V1" s="59" t="s">
+      <c r="Q1" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="W1" s="59" t="s">
+      <c r="R1" s="61" t="s">
+        <v>229</v>
+      </c>
+      <c r="S1" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="X1" s="59" t="s">
+      <c r="T1" s="61" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="32" thickBot="1">
-      <c r="A2" s="60"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="62" t="s">
+    <row r="2" spans="1:20" ht="17" thickBot="1">
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="65" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2" s="66" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2" s="66" t="s">
+        <v>218</v>
+      </c>
+      <c r="G2" s="64" t="s">
         <v>201</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="H2" s="65" t="s">
         <v>202</v>
       </c>
-      <c r="E2" s="63" t="s">
-        <v>203</v>
-      </c>
-      <c r="F2" s="62" t="s">
-        <v>235</v>
-      </c>
-      <c r="G2" s="62" t="s">
+      <c r="I2" s="64" t="s">
+        <v>222</v>
+      </c>
+      <c r="J2" s="65" t="s">
+        <v>202</v>
+      </c>
+      <c r="K2" s="65" t="s">
+        <v>224</v>
+      </c>
+      <c r="L2" s="66" t="s">
+        <v>218</v>
+      </c>
+      <c r="M2" s="65" t="s">
+        <v>222</v>
+      </c>
+      <c r="N2" s="65" t="s">
+        <v>225</v>
+      </c>
+      <c r="O2" s="65" t="s">
+        <v>202</v>
+      </c>
+      <c r="P2" s="65" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q2" s="64" t="s">
         <v>201</v>
       </c>
-      <c r="H2" s="63" t="s">
+      <c r="R2" s="65" t="s">
+        <v>222</v>
+      </c>
+      <c r="S2" s="65" t="s">
         <v>202</v>
       </c>
-      <c r="I2" s="63" t="s">
-        <v>203</v>
-      </c>
-      <c r="J2" s="63" t="s">
+      <c r="T2" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="K2" s="64" t="s">
-        <v>205</v>
-      </c>
-      <c r="L2" s="62" t="s">
-        <v>201</v>
-      </c>
-      <c r="M2" s="63" t="s">
-        <v>202</v>
-      </c>
-      <c r="N2" s="63" t="s">
-        <v>206</v>
-      </c>
-      <c r="O2" s="63" t="s">
-        <v>203</v>
-      </c>
-      <c r="P2" s="62" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q2" s="63" t="s">
-        <v>208</v>
-      </c>
-      <c r="R2" s="62" t="s">
-        <v>201</v>
-      </c>
-      <c r="S2" s="63" t="s">
-        <v>203</v>
-      </c>
-      <c r="T2" s="63" t="s">
-        <v>204</v>
-      </c>
-      <c r="U2" s="63" t="s">
-        <v>236</v>
-      </c>
-      <c r="V2" s="62" t="s">
-        <v>201</v>
-      </c>
-      <c r="W2" s="63" t="s">
-        <v>203</v>
-      </c>
-      <c r="X2" s="63" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="125" thickBot="1">
+    </row>
+    <row r="3" spans="1:20" ht="36">
       <c r="A3" s="67">
         <v>1</v>
       </c>
-      <c r="B3" s="81" t="s">
-        <v>245</v>
-      </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68" t="s">
+      <c r="B3" s="68" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+    </row>
+    <row r="4" spans="1:20" ht="36">
+      <c r="A4" s="70">
+        <v>2</v>
+      </c>
+      <c r="B4" s="71" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q4" s="81" t="s">
+        <v>221</v>
+      </c>
+      <c r="R4" s="81" t="s">
+        <v>170</v>
+      </c>
+      <c r="S4" s="81"/>
+      <c r="T4" s="81"/>
+    </row>
+    <row r="5" spans="1:20" ht="54">
+      <c r="A5" s="70">
+        <v>3</v>
+      </c>
+      <c r="B5" s="71" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q5" s="81" t="s">
+        <v>221</v>
+      </c>
+      <c r="R5" s="81" t="s">
+        <v>170</v>
+      </c>
+      <c r="S5" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="T5" s="81"/>
+    </row>
+    <row r="6" spans="1:20" ht="54">
+      <c r="A6" s="70">
+        <v>4</v>
+      </c>
+      <c r="B6" s="71" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="81" t="s">
+        <v>142</v>
+      </c>
+      <c r="P6" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q6" s="81" t="s">
+        <v>221</v>
+      </c>
+      <c r="R6" s="81" t="s">
+        <v>170</v>
+      </c>
+      <c r="S6" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="T6" s="81"/>
+    </row>
+    <row r="7" spans="1:20" ht="54">
+      <c r="A7" s="70">
+        <v>5</v>
+      </c>
+      <c r="B7" s="71" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="72"/>
+      <c r="D7" s="81" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" s="72"/>
+      <c r="F7" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81" t="s">
+        <v>142</v>
+      </c>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="P7" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="81"/>
+      <c r="S7" s="81"/>
+      <c r="T7" s="81" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="54">
+      <c r="A8" s="70">
+        <v>6</v>
+      </c>
+      <c r="B8" s="71" t="s">
+        <v>212</v>
+      </c>
+      <c r="C8" s="81" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" s="81" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8" s="72"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81" t="s">
+        <v>142</v>
+      </c>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81" t="s">
+        <v>190</v>
+      </c>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="P8" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q8" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="R8" s="81"/>
+      <c r="S8" s="81"/>
+      <c r="T8" s="81" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="90">
+      <c r="A9" s="70">
+        <v>7</v>
+      </c>
+      <c r="B9" s="71" t="s">
         <v>210</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="61" t="s">
+      <c r="C9" s="81" t="s">
+        <v>227</v>
+      </c>
+      <c r="D9" s="81" t="s">
+        <v>220</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="81" t="s">
+        <v>230</v>
+      </c>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81" t="s">
+        <v>124</v>
+      </c>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81" t="s">
+        <v>226</v>
+      </c>
+      <c r="O9" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q9" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="R9" s="81"/>
+      <c r="S9" s="81" t="s">
+        <v>228</v>
+      </c>
+      <c r="T9" s="81" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="90">
+      <c r="A10" s="70">
+        <v>8</v>
+      </c>
+      <c r="B10" s="71" t="s">
         <v>211</v>
       </c>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68" t="s">
-        <v>212</v>
-      </c>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="68"/>
-    </row>
-    <row r="4" spans="1:24" ht="156" thickBot="1">
-      <c r="A4" s="69">
-        <v>2</v>
-      </c>
-      <c r="B4" s="82" t="s">
-        <v>233</v>
-      </c>
-      <c r="C4" s="61" t="s">
+      <c r="C10" s="81" t="s">
+        <v>227</v>
+      </c>
+      <c r="D10" s="81" t="s">
+        <v>220</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="81" t="s">
+        <v>230</v>
+      </c>
+      <c r="J10" s="81" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" s="81" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" s="81"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81" t="s">
+        <v>226</v>
+      </c>
+      <c r="O10" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q10" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="R10" s="81"/>
+      <c r="S10" s="81" t="s">
+        <v>228</v>
+      </c>
+      <c r="T10" s="81"/>
+    </row>
+    <row r="11" spans="1:20" ht="90">
+      <c r="A11" s="73">
+        <v>9</v>
+      </c>
+      <c r="B11" s="71" t="s">
         <v>213</v>
       </c>
-      <c r="D4" s="68" t="s">
-        <v>210</v>
-      </c>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61" t="s">
-        <v>211</v>
-      </c>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61" t="s">
+      <c r="C11" s="81"/>
+      <c r="D11" s="81" t="s">
+        <v>220</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81" t="s">
+        <v>162</v>
+      </c>
+      <c r="H11" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="I11" s="81" t="s">
+        <v>230</v>
+      </c>
+      <c r="J11" s="81" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" s="81" t="s">
+        <v>124</v>
+      </c>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81" t="s">
+        <v>226</v>
+      </c>
+      <c r="O11" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" s="81"/>
+      <c r="Q11" s="81"/>
+      <c r="R11" s="81"/>
+      <c r="S11" s="81" t="s">
+        <v>228</v>
+      </c>
+      <c r="T11" s="81"/>
+    </row>
+    <row r="12" spans="1:20" ht="36">
+      <c r="A12" s="74">
+        <v>10</v>
+      </c>
+      <c r="B12" s="75" t="s">
         <v>214</v>
       </c>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61" t="s">
+      <c r="C12" s="80"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81" t="s">
+        <v>162</v>
+      </c>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12" s="81"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="81"/>
+      <c r="N12" s="81"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="81"/>
+      <c r="Q12" s="81"/>
+      <c r="R12" s="81"/>
+      <c r="S12" s="81"/>
+      <c r="T12" s="81"/>
+    </row>
+    <row r="13" spans="1:20" ht="37" thickBot="1">
+      <c r="A13" s="77">
+        <v>11</v>
+      </c>
+      <c r="B13" s="78" t="s">
         <v>215</v>
       </c>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61" t="s">
-        <v>216</v>
-      </c>
-      <c r="T4" s="61"/>
-      <c r="U4" s="68" t="s">
-        <v>212</v>
-      </c>
-      <c r="V4" s="61" t="s">
-        <v>217</v>
-      </c>
-      <c r="W4" s="61"/>
-      <c r="X4" s="61"/>
-    </row>
-    <row r="5" spans="1:24" ht="156" thickBot="1">
-      <c r="A5" s="69">
-        <v>3</v>
-      </c>
-      <c r="B5" s="82" t="s">
-        <v>234</v>
-      </c>
-      <c r="C5" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="D5" s="68" t="s">
-        <v>210</v>
-      </c>
-      <c r="E5" s="61" t="s">
-        <v>218</v>
-      </c>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61" t="s">
-        <v>211</v>
-      </c>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="O5" s="61" t="s">
-        <v>218</v>
-      </c>
-      <c r="P5" s="61" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61" t="s">
-        <v>216</v>
-      </c>
-      <c r="T5" s="61"/>
-      <c r="U5" s="68" t="s">
-        <v>212</v>
-      </c>
-      <c r="V5" s="61" t="s">
-        <v>217</v>
-      </c>
-      <c r="W5" s="61"/>
-      <c r="X5" s="61" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="155">
-      <c r="A6" s="69">
-        <v>4</v>
-      </c>
-      <c r="B6" s="82" t="s">
-        <v>237</v>
-      </c>
-      <c r="C6" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="D6" s="70"/>
-      <c r="E6" s="61" t="s">
-        <v>218</v>
-      </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61" t="s">
-        <v>220</v>
-      </c>
-      <c r="H6" s="61"/>
-      <c r="I6" s="71" t="s">
-        <v>221</v>
-      </c>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61" t="s">
-        <v>222</v>
-      </c>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61" t="s">
-        <v>223</v>
-      </c>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61" t="s">
-        <v>224</v>
-      </c>
-      <c r="S6" s="61" t="s">
-        <v>216</v>
-      </c>
-      <c r="T6" s="61"/>
-      <c r="U6" s="68" t="s">
-        <v>212</v>
-      </c>
-      <c r="V6" s="61" t="s">
-        <v>217</v>
-      </c>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="124">
-      <c r="A7" s="69">
-        <v>5</v>
-      </c>
-      <c r="B7" s="82" t="s">
-        <v>238</v>
-      </c>
-      <c r="C7" s="61" t="s">
-        <v>209</v>
-      </c>
-      <c r="D7" s="61" t="s">
-        <v>223</v>
-      </c>
-      <c r="E7" s="61" t="s">
-        <v>164</v>
-      </c>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61" t="s">
-        <v>224</v>
-      </c>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61" t="s">
-        <v>222</v>
-      </c>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61" t="s">
-        <v>220</v>
-      </c>
-      <c r="S7" s="71" t="s">
-        <v>221</v>
-      </c>
-      <c r="T7" s="61"/>
-      <c r="U7" s="61" t="s">
-        <v>225</v>
-      </c>
-      <c r="V7" s="61"/>
-      <c r="W7" s="61" t="s">
-        <v>226</v>
-      </c>
-      <c r="X7" s="61"/>
-    </row>
-    <row r="8" spans="1:24" ht="124">
-      <c r="A8" s="69">
-        <v>6</v>
-      </c>
-      <c r="B8" s="82" t="s">
-        <v>241</v>
-      </c>
-      <c r="C8" s="61" t="s">
-        <v>209</v>
-      </c>
-      <c r="D8" s="61" t="s">
-        <v>223</v>
-      </c>
-      <c r="E8" s="61" t="s">
-        <v>164</v>
-      </c>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61" t="s">
-        <v>224</v>
-      </c>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61" t="s">
-        <v>222</v>
-      </c>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61" t="s">
-        <v>164</v>
-      </c>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="R8" s="61" t="s">
-        <v>220</v>
-      </c>
-      <c r="S8" s="71" t="s">
-        <v>221</v>
-      </c>
-      <c r="T8" s="61"/>
-      <c r="U8" s="61" t="s">
-        <v>225</v>
-      </c>
-      <c r="V8" s="61" t="s">
-        <v>227</v>
-      </c>
-      <c r="W8" s="61" t="s">
-        <v>226</v>
-      </c>
-      <c r="X8" s="61"/>
-    </row>
-    <row r="9" spans="1:24" ht="93">
-      <c r="A9" s="69">
-        <v>7</v>
-      </c>
-      <c r="B9" s="82" t="s">
-        <v>239</v>
-      </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61" t="s">
-        <v>214</v>
-      </c>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61" t="s">
-        <v>228</v>
-      </c>
-      <c r="I9" s="61" t="s">
-        <v>229</v>
-      </c>
-      <c r="J9" s="61" t="s">
-        <v>230</v>
-      </c>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="R9" s="61"/>
-      <c r="S9" s="61" t="s">
-        <v>229</v>
-      </c>
-      <c r="T9" s="61" t="s">
-        <v>230</v>
-      </c>
-      <c r="U9" s="61" t="s">
-        <v>225</v>
-      </c>
-      <c r="V9" s="61" t="s">
-        <v>227</v>
-      </c>
-      <c r="W9" s="61" t="s">
-        <v>226</v>
-      </c>
-      <c r="X9" s="61"/>
-    </row>
-    <row r="10" spans="1:24" ht="93">
-      <c r="A10" s="69">
-        <v>8</v>
-      </c>
-      <c r="B10" s="82" t="s">
-        <v>240</v>
-      </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61" t="s">
-        <v>214</v>
-      </c>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61" t="s">
-        <v>228</v>
-      </c>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61" t="s">
-        <v>230</v>
-      </c>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="71" t="s">
-        <v>231</v>
-      </c>
-      <c r="N10" s="71"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="72" t="s">
-        <v>128</v>
-      </c>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61" t="s">
-        <v>229</v>
-      </c>
-      <c r="T10" s="73"/>
-      <c r="U10" s="61" t="s">
-        <v>225</v>
-      </c>
-      <c r="V10" s="61" t="s">
-        <v>227</v>
-      </c>
-      <c r="W10" s="61"/>
-      <c r="X10" s="61"/>
-    </row>
-    <row r="11" spans="1:24" ht="62">
-      <c r="A11" s="74">
-        <v>9</v>
-      </c>
-      <c r="B11" s="82" t="s">
-        <v>242</v>
-      </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="71" t="s">
-        <v>231</v>
-      </c>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70" t="s">
-        <v>232</v>
-      </c>
-      <c r="H11" s="61" t="s">
-        <v>228</v>
-      </c>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="71" t="s">
-        <v>231</v>
-      </c>
-      <c r="N11" s="71"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="70"/>
-      <c r="R11" s="70"/>
-      <c r="S11" s="70"/>
-      <c r="T11" s="70"/>
-      <c r="U11" s="70"/>
-      <c r="V11" s="70"/>
-      <c r="W11" s="70"/>
-      <c r="X11" s="70"/>
-    </row>
-    <row r="12" spans="1:24" ht="24">
-      <c r="A12" s="75">
-        <v>10</v>
-      </c>
-      <c r="B12" s="83" t="s">
-        <v>243</v>
-      </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="70" t="s">
-        <v>232</v>
-      </c>
-      <c r="H12" s="70"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="66"/>
-      <c r="V12" s="66"/>
-      <c r="W12" s="66"/>
-      <c r="X12" s="66"/>
-    </row>
-    <row r="13" spans="1:24" ht="25" thickBot="1">
-      <c r="A13" s="76">
-        <v>11</v>
-      </c>
-      <c r="B13" s="84" t="s">
-        <v>244</v>
-      </c>
-      <c r="C13" s="77"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="70" t="s">
-        <v>232</v>
-      </c>
-      <c r="H13" s="70"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="78"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="78"/>
-      <c r="N13" s="78"/>
-      <c r="O13" s="78"/>
-      <c r="P13" s="78"/>
-      <c r="Q13" s="78"/>
-      <c r="R13" s="78"/>
-      <c r="S13" s="78"/>
-      <c r="T13" s="78"/>
-      <c r="U13" s="78"/>
-      <c r="V13" s="78"/>
-      <c r="W13" s="78"/>
-      <c r="X13" s="78"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81" t="s">
+        <v>162</v>
+      </c>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
+      <c r="M13" s="81"/>
+      <c r="N13" s="81"/>
+      <c r="O13" s="81"/>
+      <c r="P13" s="81"/>
+      <c r="Q13" s="81"/>
+      <c r="R13" s="81"/>
+      <c r="S13" s="81"/>
+      <c r="T13" s="81"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/curriculum_undergraduate.xlsx
+++ b/data/curriculum_undergraduate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/revelunt/Library/CloudStorage/Dropbox/0. 학부장 업무/학부홈페이지 개편/홈페이지 개편 시안/INDEX/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\massc\OneDrive\바탕 화면\학부홈페이지\yonsei_comm\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BBEF46-2C60-8F4A-8501-35BAE9249259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6220DEA8-7605-4D35-9BBE-F5A69952E5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-39100" yWindow="2120" windowWidth="33940" windowHeight="23600" activeTab="1" xr2:uid="{21A94480-1307-1043-865D-B691F327BBE6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{21A94480-1307-1043-865D-B691F327BBE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -811,13 +811,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -831,7 +831,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Aptos Narrow"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -919,7 +919,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Display"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -927,7 +927,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Display"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -1313,7 +1313,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1335,7 +1335,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1364,7 +1364,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1387,7 +1387,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1403,7 +1403,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="4" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1415,7 +1415,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1451,7 +1451,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1498,7 +1498,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1592,15 +1592,12 @@
     <xf numFmtId="0" fontId="16" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1" xr:uid="{967C6097-E765-AA47-AAE7-2C834FEA7F0E}"/>
     <cellStyle name="표준 2 2" xfId="2" xr:uid="{F60A35B3-DBAC-EA4E-A552-2D47C30D1C57}"/>
   </cellStyles>
@@ -2032,7 +2029,7 @@
         <charset val="129"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="0_ "/>
+      <numFmt numFmtId="176" formatCode="0_ "/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -2197,7 +2194,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2515,16 +2512,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91807FF8-03B3-1844-BD16-33C96DBD8A94}">
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O57" sqref="O57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5"/>
   <cols>
-    <col min="4" max="4" width="35.83203125" customWidth="1"/>
+    <col min="4" max="4" width="35.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18">
+    <row r="1" spans="1:15">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -2660,7 +2657,7 @@
         <v>32</v>
       </c>
       <c r="O3" s="11" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2698,7 +2695,7 @@
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
     </row>
-    <row r="5" spans="1:15" ht="30">
+    <row r="5" spans="1:15" ht="25">
       <c r="A5" s="43" t="s">
         <v>25</v>
       </c>
@@ -3183,7 +3180,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="30">
+    <row r="18" spans="1:15" ht="25">
       <c r="A18" s="45" t="s">
         <v>34</v>
       </c>
@@ -3248,7 +3245,7 @@
       </c>
       <c r="N19" s="16"/>
       <c r="O19" s="11" t="s">
-        <v>22</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -3921,7 +3918,7 @@
       </c>
       <c r="O39" s="16"/>
     </row>
-    <row r="40" spans="1:15" ht="30">
+    <row r="40" spans="1:15" ht="25">
       <c r="A40" s="44" t="s">
         <v>25</v>
       </c>
@@ -4496,18 +4493,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE2FC47-AFC2-5C4D-96AB-ACC05297AD6A}">
   <dimension ref="A1:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="56"/>
-    <col min="2" max="2" width="10.83203125" style="58"/>
-    <col min="3" max="16384" width="10.83203125" style="56"/>
+    <col min="1" max="1" width="10.84375" style="56"/>
+    <col min="2" max="2" width="10.84375" style="58"/>
+    <col min="3" max="16384" width="10.84375" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="17" thickBot="1">
+    <row r="1" spans="1:20" ht="18" thickBot="1">
       <c r="A1" s="59"/>
       <c r="B1" s="60"/>
       <c r="C1" s="61" t="s">
@@ -4565,7 +4562,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="17" thickBot="1">
+    <row r="2" spans="1:20" ht="18" thickBot="1">
       <c r="A2" s="62"/>
       <c r="B2" s="63"/>
       <c r="C2" s="65" t="s">
@@ -4623,7 +4620,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="36">
+    <row r="3" spans="1:20" ht="33">
       <c r="A3" s="67">
         <v>1</v>
       </c>
@@ -4633,27 +4630,27 @@
       <c r="C3" s="69"/>
       <c r="D3" s="69"/>
       <c r="E3" s="69"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81" t="s">
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="81" t="s">
+      <c r="P3" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
-    </row>
-    <row r="4" spans="1:20" ht="36">
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+    </row>
+    <row r="4" spans="1:20" ht="33">
       <c r="A4" s="70">
         <v>2</v>
       </c>
@@ -4663,31 +4660,31 @@
       <c r="C4" s="72"/>
       <c r="D4" s="72"/>
       <c r="E4" s="72"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81" t="s">
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="81" t="s">
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="80" t="s">
         <v>221</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="80" t="s">
         <v>170</v>
       </c>
-      <c r="S4" s="81"/>
-      <c r="T4" s="81"/>
-    </row>
-    <row r="5" spans="1:20" ht="54">
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
+    </row>
+    <row r="5" spans="1:20" ht="49.5">
       <c r="A5" s="70">
         <v>3</v>
       </c>
@@ -4697,35 +4694,35 @@
       <c r="C5" s="72"/>
       <c r="D5" s="72"/>
       <c r="E5" s="72"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81" t="s">
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81" t="s">
+      <c r="I5" s="80"/>
+      <c r="J5" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81" t="s">
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+      <c r="P5" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="Q5" s="81" t="s">
+      <c r="Q5" s="80" t="s">
         <v>221</v>
       </c>
-      <c r="R5" s="81" t="s">
+      <c r="R5" s="80" t="s">
         <v>170</v>
       </c>
-      <c r="S5" s="81" t="s">
+      <c r="S5" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="T5" s="81"/>
-    </row>
-    <row r="6" spans="1:20" ht="54">
+      <c r="T5" s="80"/>
+    </row>
+    <row r="6" spans="1:20" ht="49.5">
       <c r="A6" s="70">
         <v>4</v>
       </c>
@@ -4735,41 +4732,41 @@
       <c r="C6" s="72"/>
       <c r="D6" s="72"/>
       <c r="E6" s="72"/>
-      <c r="F6" s="81" t="s">
+      <c r="F6" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="81" t="s">
+      <c r="G6" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="H6" s="81" t="s">
+      <c r="H6" s="80" t="s">
         <v>179</v>
       </c>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81" t="s">
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80"/>
+      <c r="L6" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="81"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81" t="s">
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80" t="s">
         <v>142</v>
       </c>
-      <c r="P6" s="81" t="s">
+      <c r="P6" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="Q6" s="81" t="s">
+      <c r="Q6" s="80" t="s">
         <v>221</v>
       </c>
-      <c r="R6" s="81" t="s">
+      <c r="R6" s="80" t="s">
         <v>170</v>
       </c>
-      <c r="S6" s="81" t="s">
+      <c r="S6" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="T6" s="81"/>
-    </row>
-    <row r="7" spans="1:20" ht="54">
+      <c r="T6" s="80"/>
+    </row>
+    <row r="7" spans="1:20" ht="49.5">
       <c r="A7" s="70">
         <v>5</v>
       </c>
@@ -4777,261 +4774,261 @@
         <v>209</v>
       </c>
       <c r="C7" s="72"/>
-      <c r="D7" s="81" t="s">
+      <c r="D7" s="80" t="s">
         <v>190</v>
       </c>
       <c r="E7" s="72"/>
-      <c r="F7" s="81" t="s">
+      <c r="F7" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81" t="s">
+      <c r="G7" s="80"/>
+      <c r="H7" s="80" t="s">
         <v>142</v>
       </c>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81" t="s">
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="M7" s="81" t="s">
+      <c r="M7" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81" t="s">
+      <c r="N7" s="80"/>
+      <c r="O7" s="80" t="s">
         <v>179</v>
       </c>
-      <c r="P7" s="81" t="s">
+      <c r="P7" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="81"/>
-      <c r="S7" s="81"/>
-      <c r="T7" s="81" t="s">
+      <c r="Q7" s="80"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="80"/>
+      <c r="T7" s="80" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="54">
+    <row r="8" spans="1:20" ht="49.5">
       <c r="A8" s="70">
         <v>6</v>
       </c>
       <c r="B8" s="71" t="s">
         <v>212</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="80" t="s">
         <v>227</v>
       </c>
-      <c r="D8" s="81" t="s">
+      <c r="D8" s="80" t="s">
         <v>190</v>
       </c>
       <c r="E8" s="72"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81" t="s">
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80" t="s">
         <v>142</v>
       </c>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81" t="s">
+      <c r="I8" s="80"/>
+      <c r="J8" s="80" t="s">
         <v>190</v>
       </c>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="81" t="s">
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="N8" s="81"/>
-      <c r="O8" s="81" t="s">
+      <c r="N8" s="80"/>
+      <c r="O8" s="80" t="s">
         <v>179</v>
       </c>
-      <c r="P8" s="81" t="s">
+      <c r="P8" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="Q8" s="81" t="s">
+      <c r="Q8" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="R8" s="81"/>
-      <c r="S8" s="81"/>
-      <c r="T8" s="81" t="s">
+      <c r="R8" s="80"/>
+      <c r="S8" s="80"/>
+      <c r="T8" s="80" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="90">
+    <row r="9" spans="1:20" ht="82.5">
       <c r="A9" s="70">
         <v>7</v>
       </c>
       <c r="B9" s="71" t="s">
         <v>210</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="80" t="s">
         <v>227</v>
       </c>
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="80" t="s">
         <v>220</v>
       </c>
       <c r="E9" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81" t="s">
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="81" t="s">
+      <c r="I9" s="80" t="s">
         <v>230</v>
       </c>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81" t="s">
+      <c r="J9" s="80"/>
+      <c r="K9" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81" t="s">
+      <c r="L9" s="80"/>
+      <c r="M9" s="80"/>
+      <c r="N9" s="80" t="s">
         <v>226</v>
       </c>
-      <c r="O9" s="81" t="s">
+      <c r="O9" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="P9" s="81" t="s">
+      <c r="P9" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="Q9" s="81" t="s">
+      <c r="Q9" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="R9" s="81"/>
-      <c r="S9" s="81" t="s">
+      <c r="R9" s="80"/>
+      <c r="S9" s="80" t="s">
         <v>228</v>
       </c>
-      <c r="T9" s="81" t="s">
+      <c r="T9" s="80" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="90">
+    <row r="10" spans="1:20" ht="82.5">
       <c r="A10" s="70">
         <v>8</v>
       </c>
       <c r="B10" s="71" t="s">
         <v>211</v>
       </c>
-      <c r="C10" s="81" t="s">
+      <c r="C10" s="80" t="s">
         <v>227</v>
       </c>
-      <c r="D10" s="81" t="s">
+      <c r="D10" s="80" t="s">
         <v>220</v>
       </c>
       <c r="E10" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81" t="s">
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="H10" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="81" t="s">
+      <c r="I10" s="80" t="s">
         <v>230</v>
       </c>
-      <c r="J10" s="81" t="s">
+      <c r="J10" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="K10" s="81" t="s">
+      <c r="K10" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81" t="s">
+      <c r="L10" s="80"/>
+      <c r="M10" s="80"/>
+      <c r="N10" s="80" t="s">
         <v>226</v>
       </c>
-      <c r="O10" s="81" t="s">
+      <c r="O10" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="P10" s="81" t="s">
+      <c r="P10" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="Q10" s="81" t="s">
+      <c r="Q10" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="R10" s="81"/>
-      <c r="S10" s="81" t="s">
+      <c r="R10" s="80"/>
+      <c r="S10" s="80" t="s">
         <v>228</v>
       </c>
-      <c r="T10" s="81"/>
-    </row>
-    <row r="11" spans="1:20" ht="90">
+      <c r="T10" s="80"/>
+    </row>
+    <row r="11" spans="1:20" ht="82.5">
       <c r="A11" s="73">
         <v>9</v>
       </c>
       <c r="B11" s="71" t="s">
         <v>213</v>
       </c>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81" t="s">
+      <c r="C11" s="80"/>
+      <c r="D11" s="80" t="s">
         <v>220</v>
       </c>
       <c r="E11" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81" t="s">
+      <c r="F11" s="80"/>
+      <c r="G11" s="80" t="s">
         <v>162</v>
       </c>
-      <c r="H11" s="81" t="s">
+      <c r="H11" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="I11" s="81" t="s">
+      <c r="I11" s="80" t="s">
         <v>230</v>
       </c>
-      <c r="J11" s="81" t="s">
+      <c r="J11" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="K11" s="81" t="s">
+      <c r="K11" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="L11" s="81"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81" t="s">
+      <c r="L11" s="80"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="80" t="s">
         <v>226</v>
       </c>
-      <c r="O11" s="81" t="s">
+      <c r="O11" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="P11" s="81"/>
-      <c r="Q11" s="81"/>
-      <c r="R11" s="81"/>
-      <c r="S11" s="81" t="s">
+      <c r="P11" s="80"/>
+      <c r="Q11" s="80"/>
+      <c r="R11" s="80"/>
+      <c r="S11" s="80" t="s">
         <v>228</v>
       </c>
-      <c r="T11" s="81"/>
-    </row>
-    <row r="12" spans="1:20" ht="36">
+      <c r="T11" s="80"/>
+    </row>
+    <row r="12" spans="1:20" ht="33">
       <c r="A12" s="74">
         <v>10</v>
       </c>
       <c r="B12" s="75" t="s">
         <v>214</v>
       </c>
-      <c r="C12" s="80"/>
+      <c r="C12" s="76"/>
       <c r="D12" s="76"/>
       <c r="E12" s="76"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81" t="s">
+      <c r="F12" s="80"/>
+      <c r="G12" s="80" t="s">
         <v>162</v>
       </c>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81" t="s">
+      <c r="H12" s="80"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="81"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="81"/>
-      <c r="P12" s="81"/>
-      <c r="Q12" s="81"/>
-      <c r="R12" s="81"/>
-      <c r="S12" s="81"/>
-      <c r="T12" s="81"/>
-    </row>
-    <row r="13" spans="1:20" ht="37" thickBot="1">
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="80"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="80"/>
+      <c r="Q12" s="80"/>
+      <c r="R12" s="80"/>
+      <c r="S12" s="80"/>
+      <c r="T12" s="80"/>
+    </row>
+    <row r="13" spans="1:20" ht="18" thickBot="1">
       <c r="A13" s="77">
         <v>11</v>
       </c>
@@ -5041,25 +5038,26 @@
       <c r="C13" s="79"/>
       <c r="D13" s="79"/>
       <c r="E13" s="79"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81" t="s">
+      <c r="F13" s="80"/>
+      <c r="G13" s="80" t="s">
         <v>162</v>
       </c>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="81"/>
-      <c r="L13" s="81"/>
-      <c r="M13" s="81"/>
-      <c r="N13" s="81"/>
-      <c r="O13" s="81"/>
-      <c r="P13" s="81"/>
-      <c r="Q13" s="81"/>
-      <c r="R13" s="81"/>
-      <c r="S13" s="81"/>
-      <c r="T13" s="81"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="80"/>
+      <c r="K13" s="80"/>
+      <c r="L13" s="80"/>
+      <c r="M13" s="80"/>
+      <c r="N13" s="80"/>
+      <c r="O13" s="80"/>
+      <c r="P13" s="80"/>
+      <c r="Q13" s="80"/>
+      <c r="R13" s="80"/>
+      <c r="S13" s="80"/>
+      <c r="T13" s="80"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/curriculum_undergraduate.xlsx
+++ b/data/curriculum_undergraduate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\massc\OneDrive\바탕 화면\학부홈페이지\yonsei_comm\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/revelunt/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6220DEA8-7605-4D35-9BBE-F5A69952E5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CAB048-1D95-FC4F-8DC6-F09938DCE267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{21A94480-1307-1043-865D-B691F327BBE6}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{21A94480-1307-1043-865D-B691F327BBE6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="234">
   <si>
     <t>종별</t>
   </si>
@@ -699,14 +699,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>진D114</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>연112</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10-11</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -776,9 +768,6 @@
     <t>목</t>
   </si>
   <si>
-    <t>연404</t>
-  </si>
-  <si>
     <t>연211</t>
   </si>
   <si>
@@ -804,6 +793,15 @@
   </si>
   <si>
     <t>금혜성</t>
+  </si>
+  <si>
+    <t>대별203</t>
+  </si>
+  <si>
+    <t>I진A302</t>
+  </si>
+  <si>
+    <t>외02</t>
   </si>
 </sst>
 </file>
@@ -811,13 +809,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="164" formatCode="0_ "/>
   </numFmts>
   <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -831,7 +829,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -919,7 +917,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Display"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -927,7 +925,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Display"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -1335,7 +1333,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1364,7 +1362,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1387,7 +1385,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1403,7 +1401,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1415,7 +1413,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1451,7 +1449,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1498,7 +1496,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1597,7 +1595,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1" xr:uid="{967C6097-E765-AA47-AAE7-2C834FEA7F0E}"/>
     <cellStyle name="표준 2 2" xfId="2" xr:uid="{F60A35B3-DBAC-EA4E-A552-2D47C30D1C57}"/>
   </cellStyles>
@@ -2029,7 +2027,7 @@
         <charset val="129"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="176" formatCode="0_ "/>
+      <numFmt numFmtId="164" formatCode="0_ "/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -2194,7 +2192,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2512,16 +2510,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91807FF8-03B3-1844-BD16-33C96DBD8A94}">
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="17.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="4" max="4" width="35.84375" customWidth="1"/>
+    <col min="4" max="4" width="35.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" ht="18">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -2565,7 +2563,7 @@
         <v>13</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -2695,7 +2693,7 @@
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
     </row>
-    <row r="5" spans="1:15" ht="25">
+    <row r="5" spans="1:15" ht="30">
       <c r="A5" s="43" t="s">
         <v>25</v>
       </c>
@@ -3180,7 +3178,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="25">
+    <row r="18" spans="1:15" ht="30">
       <c r="A18" s="45" t="s">
         <v>34</v>
       </c>
@@ -3882,7 +3880,7 @@
         <v>146</v>
       </c>
       <c r="O38" s="12" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -3918,7 +3916,7 @@
       </c>
       <c r="O39" s="16"/>
     </row>
-    <row r="40" spans="1:15" ht="25">
+    <row r="40" spans="1:15" ht="30">
       <c r="A40" s="44" t="s">
         <v>25</v>
       </c>
@@ -4070,7 +4068,7 @@
       </c>
       <c r="N44" s="16"/>
       <c r="O44" s="11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -4491,33 +4489,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE2FC47-AFC2-5C4D-96AB-ACC05297AD6A}">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="17.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.84375" style="56"/>
-    <col min="2" max="2" width="10.84375" style="58"/>
-    <col min="3" max="16384" width="10.84375" style="56"/>
+    <col min="1" max="1" width="10.83203125" style="56"/>
+    <col min="2" max="2" width="10.83203125" style="58"/>
+    <col min="3" max="16384" width="10.83203125" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="18" thickBot="1">
+    <row r="1" spans="1:21" ht="17" thickBot="1">
       <c r="A1" s="59"/>
       <c r="B1" s="60"/>
       <c r="C1" s="61" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D1" s="61" t="s">
         <v>196</v>
       </c>
       <c r="E1" s="61" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F1" s="61" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G1" s="61" t="s">
         <v>197</v>
@@ -4526,7 +4524,7 @@
         <v>197</v>
       </c>
       <c r="I1" s="61" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J1" s="61" t="s">
         <v>198</v>
@@ -4535,97 +4533,103 @@
         <v>198</v>
       </c>
       <c r="L1" s="61" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="M1" s="61" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="N1" s="61" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O1" s="61" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="P1" s="61" t="s">
         <v>199</v>
       </c>
       <c r="Q1" s="61" t="s">
+        <v>199</v>
+      </c>
+      <c r="R1" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="R1" s="61" t="s">
-        <v>229</v>
-      </c>
       <c r="S1" s="61" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="T1" s="61" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" ht="18" thickBot="1">
+      <c r="U1" s="61" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="17" thickBot="1">
       <c r="A2" s="62"/>
       <c r="B2" s="63"/>
       <c r="C2" s="65" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D2" s="65" t="s">
         <v>202</v>
       </c>
       <c r="E2" s="66" t="s">
-        <v>203</v>
+        <v>232</v>
       </c>
       <c r="F2" s="66" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G2" s="64" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="H2" s="65" t="s">
         <v>202</v>
       </c>
       <c r="I2" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="J2" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="K2" s="65" t="s">
+        <v>202</v>
+      </c>
+      <c r="L2" s="65" t="s">
+        <v>233</v>
+      </c>
+      <c r="M2" s="66" t="s">
+        <v>216</v>
+      </c>
+      <c r="N2" s="65" t="s">
+        <v>220</v>
+      </c>
+      <c r="O2" s="65" t="s">
         <v>222</v>
       </c>
-      <c r="J2" s="65" t="s">
+      <c r="P2" s="65" t="s">
         <v>202</v>
       </c>
-      <c r="K2" s="65" t="s">
-        <v>224</v>
-      </c>
-      <c r="L2" s="66" t="s">
-        <v>218</v>
-      </c>
-      <c r="M2" s="65" t="s">
+      <c r="Q2" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="R2" s="64" t="s">
+        <v>201</v>
+      </c>
+      <c r="S2" s="65" t="s">
+        <v>220</v>
+      </c>
+      <c r="T2" s="65" t="s">
+        <v>202</v>
+      </c>
+      <c r="U2" s="65" t="s">
         <v>222</v>
       </c>
-      <c r="N2" s="65" t="s">
-        <v>225</v>
-      </c>
-      <c r="O2" s="65" t="s">
-        <v>202</v>
-      </c>
-      <c r="P2" s="65" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q2" s="64" t="s">
-        <v>201</v>
-      </c>
-      <c r="R2" s="65" t="s">
-        <v>222</v>
-      </c>
-      <c r="S2" s="65" t="s">
-        <v>202</v>
-      </c>
-      <c r="T2" s="65" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="33">
+    </row>
+    <row r="3" spans="1:21" ht="36">
       <c r="A3" s="67">
         <v>1</v>
       </c>
       <c r="B3" s="68" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C3" s="69"/>
       <c r="D3" s="69"/>
@@ -4639,23 +4643,24 @@
       <c r="L3" s="80"/>
       <c r="M3" s="80"/>
       <c r="N3" s="80"/>
-      <c r="O3" s="80" t="s">
+      <c r="O3" s="80"/>
+      <c r="P3" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="80" t="s">
+      <c r="Q3" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="Q3" s="80"/>
       <c r="R3" s="80"/>
       <c r="S3" s="80"/>
       <c r="T3" s="80"/>
-    </row>
-    <row r="4" spans="1:20" ht="33">
+      <c r="U3" s="80"/>
+    </row>
+    <row r="4" spans="1:21" ht="36">
       <c r="A4" s="70">
         <v>2</v>
       </c>
       <c r="B4" s="71" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C4" s="72"/>
       <c r="D4" s="72"/>
@@ -4672,24 +4677,25 @@
       <c r="M4" s="80"/>
       <c r="N4" s="80"/>
       <c r="O4" s="80"/>
-      <c r="P4" s="80" t="s">
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="Q4" s="80" t="s">
-        <v>221</v>
-      </c>
       <c r="R4" s="80" t="s">
+        <v>219</v>
+      </c>
+      <c r="S4" s="80" t="s">
         <v>170</v>
       </c>
-      <c r="S4" s="80"/>
       <c r="T4" s="80"/>
-    </row>
-    <row r="5" spans="1:20" ht="49.5">
+      <c r="U4" s="80"/>
+    </row>
+    <row r="5" spans="1:21" ht="54">
       <c r="A5" s="70">
         <v>3</v>
       </c>
       <c r="B5" s="71" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C5" s="72"/>
       <c r="D5" s="72"/>
@@ -4700,34 +4706,35 @@
         <v>36</v>
       </c>
       <c r="I5" s="80"/>
-      <c r="J5" s="80" t="s">
+      <c r="J5" s="80"/>
+      <c r="K5" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="K5" s="80"/>
       <c r="L5" s="80"/>
       <c r="M5" s="80"/>
       <c r="N5" s="80"/>
       <c r="O5" s="80"/>
-      <c r="P5" s="80" t="s">
+      <c r="P5" s="80"/>
+      <c r="Q5" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="Q5" s="80" t="s">
-        <v>221</v>
-      </c>
       <c r="R5" s="80" t="s">
+        <v>219</v>
+      </c>
+      <c r="S5" s="80" t="s">
         <v>170</v>
       </c>
-      <c r="S5" s="80" t="s">
+      <c r="T5" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="T5" s="80"/>
-    </row>
-    <row r="6" spans="1:20" ht="49.5">
+      <c r="U5" s="80"/>
+    </row>
+    <row r="6" spans="1:21" ht="54">
       <c r="A6" s="70">
         <v>4</v>
       </c>
       <c r="B6" s="71" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C6" s="72"/>
       <c r="D6" s="72"/>
@@ -4744,34 +4751,35 @@
       <c r="I6" s="80"/>
       <c r="J6" s="80"/>
       <c r="K6" s="80"/>
-      <c r="L6" s="80" t="s">
+      <c r="L6" s="80"/>
+      <c r="M6" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="80"/>
       <c r="N6" s="80"/>
-      <c r="O6" s="80" t="s">
+      <c r="O6" s="80"/>
+      <c r="P6" s="80" t="s">
         <v>142</v>
       </c>
-      <c r="P6" s="80" t="s">
+      <c r="Q6" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="Q6" s="80" t="s">
-        <v>221</v>
-      </c>
       <c r="R6" s="80" t="s">
+        <v>219</v>
+      </c>
+      <c r="S6" s="80" t="s">
         <v>170</v>
       </c>
-      <c r="S6" s="80" t="s">
+      <c r="T6" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="T6" s="80"/>
-    </row>
-    <row r="7" spans="1:20" ht="49.5">
+      <c r="U6" s="80"/>
+    </row>
+    <row r="7" spans="1:21" ht="54">
       <c r="A7" s="70">
         <v>5</v>
       </c>
       <c r="B7" s="71" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C7" s="72"/>
       <c r="D7" s="80" t="s">
@@ -4788,35 +4796,36 @@
       <c r="I7" s="80"/>
       <c r="J7" s="80"/>
       <c r="K7" s="80"/>
-      <c r="L7" s="80" t="s">
+      <c r="L7" s="80"/>
+      <c r="M7" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="M7" s="80" t="s">
+      <c r="N7" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="N7" s="80"/>
-      <c r="O7" s="80" t="s">
+      <c r="O7" s="80"/>
+      <c r="P7" s="80" t="s">
         <v>179</v>
       </c>
-      <c r="P7" s="80" t="s">
+      <c r="Q7" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="Q7" s="80"/>
       <c r="R7" s="80"/>
       <c r="S7" s="80"/>
-      <c r="T7" s="80" t="s">
+      <c r="T7" s="80"/>
+      <c r="U7" s="80" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="49.5">
+    <row r="8" spans="1:21" ht="54">
       <c r="A8" s="70">
         <v>6</v>
       </c>
       <c r="B8" s="71" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C8" s="80" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D8" s="80" t="s">
         <v>190</v>
@@ -4828,42 +4837,43 @@
         <v>142</v>
       </c>
       <c r="I8" s="80"/>
-      <c r="J8" s="80" t="s">
+      <c r="J8" s="80"/>
+      <c r="K8" s="80" t="s">
         <v>190</v>
       </c>
-      <c r="K8" s="80"/>
       <c r="L8" s="80"/>
-      <c r="M8" s="80" t="s">
+      <c r="M8" s="80"/>
+      <c r="N8" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="N8" s="80"/>
-      <c r="O8" s="80" t="s">
+      <c r="O8" s="80"/>
+      <c r="P8" s="80" t="s">
         <v>179</v>
       </c>
-      <c r="P8" s="80" t="s">
+      <c r="Q8" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="Q8" s="80" t="s">
+      <c r="R8" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="R8" s="80"/>
       <c r="S8" s="80"/>
-      <c r="T8" s="80" t="s">
+      <c r="T8" s="80"/>
+      <c r="U8" s="80" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="82.5">
+    <row r="9" spans="1:21" ht="90">
       <c r="A9" s="70">
         <v>7</v>
       </c>
       <c r="B9" s="71" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C9" s="80" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D9" s="80" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E9" s="57" t="s">
         <v>16</v>
@@ -4873,47 +4883,48 @@
       <c r="H9" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="80" t="s">
-        <v>230</v>
-      </c>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80" t="s">
+      <c r="I9" s="80"/>
+      <c r="J9" s="80" t="s">
+        <v>227</v>
+      </c>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="L9" s="80"/>
       <c r="M9" s="80"/>
-      <c r="N9" s="80" t="s">
-        <v>226</v>
-      </c>
+      <c r="N9" s="80"/>
       <c r="O9" s="80" t="s">
+        <v>223</v>
+      </c>
+      <c r="P9" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="P9" s="80" t="s">
+      <c r="Q9" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="Q9" s="80" t="s">
+      <c r="R9" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="R9" s="80"/>
-      <c r="S9" s="80" t="s">
-        <v>228</v>
-      </c>
+      <c r="S9" s="80"/>
       <c r="T9" s="80" t="s">
+        <v>225</v>
+      </c>
+      <c r="U9" s="80" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="82.5">
+    <row r="10" spans="1:21" ht="90">
       <c r="A10" s="70">
         <v>8</v>
       </c>
       <c r="B10" s="71" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C10" s="80" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D10" s="80" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E10" s="57" t="s">
         <v>16</v>
@@ -4923,101 +4934,103 @@
       <c r="H10" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="80" t="s">
-        <v>230</v>
-      </c>
+      <c r="I10" s="80"/>
       <c r="J10" s="80" t="s">
+        <v>227</v>
+      </c>
+      <c r="K10" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="K10" s="80" t="s">
+      <c r="L10" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="L10" s="80"/>
       <c r="M10" s="80"/>
-      <c r="N10" s="80" t="s">
-        <v>226</v>
-      </c>
+      <c r="N10" s="80"/>
       <c r="O10" s="80" t="s">
+        <v>223</v>
+      </c>
+      <c r="P10" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="P10" s="80" t="s">
+      <c r="Q10" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="Q10" s="80" t="s">
+      <c r="R10" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="R10" s="80"/>
-      <c r="S10" s="80" t="s">
-        <v>228</v>
-      </c>
-      <c r="T10" s="80"/>
-    </row>
-    <row r="11" spans="1:20" ht="82.5">
+      <c r="S10" s="80"/>
+      <c r="T10" s="80" t="s">
+        <v>225</v>
+      </c>
+      <c r="U10" s="80"/>
+    </row>
+    <row r="11" spans="1:21" ht="90">
       <c r="A11" s="73">
         <v>9</v>
       </c>
       <c r="B11" s="71" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C11" s="80"/>
       <c r="D11" s="80" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E11" s="57" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="80"/>
-      <c r="G11" s="80" t="s">
-        <v>162</v>
-      </c>
+      <c r="G11" s="80"/>
       <c r="H11" s="80" t="s">
         <v>75</v>
       </c>
       <c r="I11" s="80" t="s">
-        <v>230</v>
+        <v>162</v>
       </c>
       <c r="J11" s="80" t="s">
+        <v>227</v>
+      </c>
+      <c r="K11" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="K11" s="80" t="s">
+      <c r="L11" s="80" t="s">
         <v>124</v>
       </c>
-      <c r="L11" s="80"/>
       <c r="M11" s="80"/>
-      <c r="N11" s="80" t="s">
-        <v>226</v>
-      </c>
+      <c r="N11" s="80"/>
       <c r="O11" s="80" t="s">
+        <v>223</v>
+      </c>
+      <c r="P11" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="P11" s="80"/>
       <c r="Q11" s="80"/>
       <c r="R11" s="80"/>
-      <c r="S11" s="80" t="s">
-        <v>228</v>
-      </c>
-      <c r="T11" s="80"/>
-    </row>
-    <row r="12" spans="1:20" ht="33">
+      <c r="S11" s="80"/>
+      <c r="T11" s="80" t="s">
+        <v>225</v>
+      </c>
+      <c r="U11" s="80"/>
+    </row>
+    <row r="12" spans="1:21" ht="36">
       <c r="A12" s="74">
         <v>10</v>
       </c>
       <c r="B12" s="75" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C12" s="76"/>
       <c r="D12" s="76"/>
       <c r="E12" s="76"/>
       <c r="F12" s="80"/>
-      <c r="G12" s="80" t="s">
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="80" t="s">
         <v>162</v>
       </c>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="80" t="s">
+      <c r="J12" s="80"/>
+      <c r="K12" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="K12" s="80"/>
       <c r="L12" s="80"/>
       <c r="M12" s="80"/>
       <c r="N12" s="80"/>
@@ -5027,23 +5040,24 @@
       <c r="R12" s="80"/>
       <c r="S12" s="80"/>
       <c r="T12" s="80"/>
-    </row>
-    <row r="13" spans="1:20" ht="18" thickBot="1">
+      <c r="U12" s="80"/>
+    </row>
+    <row r="13" spans="1:21" ht="37" thickBot="1">
       <c r="A13" s="77">
         <v>11</v>
       </c>
       <c r="B13" s="78" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C13" s="79"/>
       <c r="D13" s="79"/>
       <c r="E13" s="79"/>
       <c r="F13" s="80"/>
-      <c r="G13" s="80" t="s">
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="80" t="s">
         <v>162</v>
       </c>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
       <c r="J13" s="80"/>
       <c r="K13" s="80"/>
       <c r="L13" s="80"/>
@@ -5055,6 +5069,7 @@
       <c r="R13" s="80"/>
       <c r="S13" s="80"/>
       <c r="T13" s="80"/>
+      <c r="U13" s="80"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
